--- a/Texas_Rural_Urban.xlsx
+++ b/Texas_Rural_Urban.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marissa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marissa\Documents\GitHub\Covid-19-Texas-Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAB8A144-326B-4422-93BD-D375DDF200C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC292AA-76AD-4265-B4EF-9C90047E72EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552"/>
+    <workbookView xWindow="2178" yWindow="0" windowWidth="20862" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResultsGrid_ExportData (2)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="1283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="1053">
   <si>
     <t>County</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Anderson</t>
   </si>
   <si>
-    <t>1,062.60</t>
-  </si>
-  <si>
     <t>15.40</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>Andrews</t>
   </si>
   <si>
-    <t>1,500.70</t>
-  </si>
-  <si>
     <t>0.40</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>Angelina</t>
   </si>
   <si>
-    <t>797.80</t>
-  </si>
-  <si>
     <t>66.90</t>
   </si>
   <si>
@@ -97,9 +88,6 @@
     <t>Aransas</t>
   </si>
   <si>
-    <t>252.10</t>
-  </si>
-  <si>
     <t>275.90</t>
   </si>
   <si>
@@ -115,9 +103,6 @@
     <t>Archer</t>
   </si>
   <si>
-    <t>903.30</t>
-  </si>
-  <si>
     <t>22.30</t>
   </si>
   <si>
@@ -133,9 +118,6 @@
     <t>Armstrong</t>
   </si>
   <si>
-    <t>909.10</t>
-  </si>
-  <si>
     <t>4.70</t>
   </si>
   <si>
@@ -151,9 +133,6 @@
     <t>Atascosa</t>
   </si>
   <si>
-    <t>1,219.50</t>
-  </si>
-  <si>
     <t>1.90</t>
   </si>
   <si>
@@ -169,9 +148,6 @@
     <t>Austin</t>
   </si>
   <si>
-    <t>646.50</t>
-  </si>
-  <si>
     <t>9.90</t>
   </si>
   <si>
@@ -187,9 +163,6 @@
     <t>Bailey</t>
   </si>
   <si>
-    <t>827.00</t>
-  </si>
-  <si>
     <t>0.70</t>
   </si>
   <si>
@@ -205,9 +178,6 @@
     <t>Bandera</t>
   </si>
   <si>
-    <t>791.00</t>
-  </si>
-  <si>
     <t>6.70</t>
   </si>
   <si>
@@ -217,9 +187,6 @@
     <t>Bastrop</t>
   </si>
   <si>
-    <t>888.20</t>
-  </si>
-  <si>
     <t>7.30</t>
   </si>
   <si>
@@ -235,9 +202,6 @@
     <t>Baylor</t>
   </si>
   <si>
-    <t>867.50</t>
-  </si>
-  <si>
     <t>33.60</t>
   </si>
   <si>
@@ -247,9 +211,6 @@
     <t>Bee</t>
   </si>
   <si>
-    <t>880.20</t>
-  </si>
-  <si>
     <t>0.10</t>
   </si>
   <si>
@@ -265,9 +226,6 @@
     <t>Bell</t>
   </si>
   <si>
-    <t>1,053.80</t>
-  </si>
-  <si>
     <t>36.40</t>
   </si>
   <si>
@@ -283,9 +241,6 @@
     <t>Bexar</t>
   </si>
   <si>
-    <t>1,240.30</t>
-  </si>
-  <si>
     <t>15.80</t>
   </si>
   <si>
@@ -301,9 +256,6 @@
     <t>Blanco</t>
   </si>
   <si>
-    <t>709.30</t>
-  </si>
-  <si>
     <t>4.20</t>
   </si>
   <si>
@@ -313,9 +265,6 @@
     <t>Borden</t>
   </si>
   <si>
-    <t>897.40</t>
-  </si>
-  <si>
     <t>8.60</t>
   </si>
   <si>
@@ -325,9 +274,6 @@
     <t>Bosque</t>
   </si>
   <si>
-    <t>983.00</t>
-  </si>
-  <si>
     <t>19.60</t>
   </si>
   <si>
@@ -343,9 +289,6 @@
     <t>Bowie</t>
   </si>
   <si>
-    <t>885.00</t>
-  </si>
-  <si>
     <t>38.00</t>
   </si>
   <si>
@@ -361,9 +304,6 @@
     <t>Brazoria</t>
   </si>
   <si>
-    <t>1,363.30</t>
-  </si>
-  <si>
     <t>245.30</t>
   </si>
   <si>
@@ -379,9 +319,6 @@
     <t>Brazos</t>
   </si>
   <si>
-    <t>586.10</t>
-  </si>
-  <si>
     <t>5.10</t>
   </si>
   <si>
@@ -397,9 +334,6 @@
     <t>Brewster</t>
   </si>
   <si>
-    <t>6,183.80</t>
-  </si>
-  <si>
     <t>8.50</t>
   </si>
   <si>
@@ -415,9 +349,6 @@
     <t>Briscoe</t>
   </si>
   <si>
-    <t>900.00</t>
-  </si>
-  <si>
     <t>1.60</t>
   </si>
   <si>
@@ -427,9 +358,6 @@
     <t>Brooks</t>
   </si>
   <si>
-    <t>943.40</t>
-  </si>
-  <si>
     <t>0.30</t>
   </si>
   <si>
@@ -445,9 +373,6 @@
     <t>Brown</t>
   </si>
   <si>
-    <t>944.50</t>
-  </si>
-  <si>
     <t>12.50</t>
   </si>
   <si>
@@ -463,9 +388,6 @@
     <t>Burleson</t>
   </si>
   <si>
-    <t>659.10</t>
-  </si>
-  <si>
     <t>17.80</t>
   </si>
   <si>
@@ -481,9 +403,6 @@
     <t>Burnet</t>
   </si>
   <si>
-    <t>994.80</t>
-  </si>
-  <si>
     <t>27.00</t>
   </si>
   <si>
@@ -499,9 +418,6 @@
     <t>Caldwell</t>
   </si>
   <si>
-    <t>545.20</t>
-  </si>
-  <si>
     <t>547.20</t>
   </si>
   <si>
@@ -514,9 +430,6 @@
     <t>Calhoun</t>
   </si>
   <si>
-    <t>506.80</t>
-  </si>
-  <si>
     <t>525.80</t>
   </si>
   <si>
@@ -532,9 +445,6 @@
     <t>Callahan</t>
   </si>
   <si>
-    <t>899.40</t>
-  </si>
-  <si>
     <t>901.30</t>
   </si>
   <si>
@@ -547,9 +457,6 @@
     <t>Cameron</t>
   </si>
   <si>
-    <t>891.70</t>
-  </si>
-  <si>
     <t>384.80</t>
   </si>
   <si>
@@ -565,9 +472,6 @@
     <t>Camp</t>
   </si>
   <si>
-    <t>195.80</t>
-  </si>
-  <si>
     <t>7.40</t>
   </si>
   <si>
@@ -601,9 +505,6 @@
     <t>Cass</t>
   </si>
   <si>
-    <t>936.90</t>
-  </si>
-  <si>
     <t>23.40</t>
   </si>
   <si>
@@ -619,9 +520,6 @@
     <t>Castro</t>
   </si>
   <si>
-    <t>894.40</t>
-  </si>
-  <si>
     <t>4.80</t>
   </si>
   <si>
@@ -637,9 +535,6 @@
     <t>Chambers</t>
   </si>
   <si>
-    <t>597.20</t>
-  </si>
-  <si>
     <t>274.00</t>
   </si>
   <si>
@@ -655,9 +550,6 @@
     <t>Cherokee</t>
   </si>
   <si>
-    <t>1,053.00</t>
-  </si>
-  <si>
     <t>9.20</t>
   </si>
   <si>
@@ -673,9 +565,6 @@
     <t>Childress</t>
   </si>
   <si>
-    <t>696.50</t>
-  </si>
-  <si>
     <t>17.20</t>
   </si>
   <si>
@@ -691,9 +580,6 @@
     <t>Clay</t>
   </si>
   <si>
-    <t>1,088.80</t>
-  </si>
-  <si>
     <t>28.00</t>
   </si>
   <si>
@@ -709,18 +595,12 @@
     <t>Cochran</t>
   </si>
   <si>
-    <t>775.10</t>
-  </si>
-  <si>
     <t>775.20</t>
   </si>
   <si>
     <t>Coke</t>
   </si>
   <si>
-    <t>911.60</t>
-  </si>
-  <si>
     <t>16.30</t>
   </si>
   <si>
@@ -730,9 +610,6 @@
     <t>Coleman</t>
   </si>
   <si>
-    <t>1,262.90</t>
-  </si>
-  <si>
     <t>18.50</t>
   </si>
   <si>
@@ -766,9 +643,6 @@
     <t>Collingsworth</t>
   </si>
   <si>
-    <t>918.40</t>
-  </si>
-  <si>
     <t>0.90</t>
   </si>
   <si>
@@ -793,9 +667,6 @@
     <t>Comal</t>
   </si>
   <si>
-    <t>559.50</t>
-  </si>
-  <si>
     <t>574.90</t>
   </si>
   <si>
@@ -808,9 +679,6 @@
     <t>Comanche</t>
   </si>
   <si>
-    <t>937.80</t>
-  </si>
-  <si>
     <t>947.70</t>
   </si>
   <si>
@@ -823,18 +691,12 @@
     <t>Concho</t>
   </si>
   <si>
-    <t>983.80</t>
-  </si>
-  <si>
     <t>993.70</t>
   </si>
   <si>
     <t>Cooke</t>
   </si>
   <si>
-    <t>874.80</t>
-  </si>
-  <si>
     <t>23.70</t>
   </si>
   <si>
@@ -850,9 +712,6 @@
     <t>Coryell</t>
   </si>
   <si>
-    <t>1,052.20</t>
-  </si>
-  <si>
     <t>4.60</t>
   </si>
   <si>
@@ -868,18 +727,12 @@
     <t>Cottle</t>
   </si>
   <si>
-    <t>900.60</t>
-  </si>
-  <si>
     <t>1.10</t>
   </si>
   <si>
     <t>Crane</t>
   </si>
   <si>
-    <t>785.10</t>
-  </si>
-  <si>
     <t>785.70</t>
   </si>
   <si>
@@ -907,9 +760,6 @@
     <t>Crosby</t>
   </si>
   <si>
-    <t>900.20</t>
-  </si>
-  <si>
     <t>1.50</t>
   </si>
   <si>
@@ -919,9 +769,6 @@
     <t>Culberson</t>
   </si>
   <si>
-    <t>3,812.20</t>
-  </si>
-  <si>
     <t>0.20</t>
   </si>
   <si>
@@ -931,9 +778,6 @@
     <t>Dallam</t>
   </si>
   <si>
-    <t>1,503.10</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -949,9 +793,6 @@
     <t>Dallas</t>
   </si>
   <si>
-    <t>873.00</t>
-  </si>
-  <si>
     <t>35.50</t>
   </si>
   <si>
@@ -967,9 +808,6 @@
     <t>Dawson</t>
   </si>
   <si>
-    <t>900.30</t>
-  </si>
-  <si>
     <t>1.80</t>
   </si>
   <si>
@@ -985,9 +823,6 @@
     <t>Deaf Smith</t>
   </si>
   <si>
-    <t>1,496.80</t>
-  </si>
-  <si>
     <t>1,498.30</t>
   </si>
   <si>
@@ -1000,9 +835,6 @@
     <t>Delta</t>
   </si>
   <si>
-    <t>256.80</t>
-  </si>
-  <si>
     <t>21.10</t>
   </si>
   <si>
@@ -1012,9 +844,6 @@
     <t>Denton</t>
   </si>
   <si>
-    <t>878.50</t>
-  </si>
-  <si>
     <t>73.20</t>
   </si>
   <si>
@@ -1030,9 +859,6 @@
     <t>DeWitt</t>
   </si>
   <si>
-    <t>909.00</t>
-  </si>
-  <si>
     <t>910.50</t>
   </si>
   <si>
@@ -1054,9 +880,6 @@
     <t>Dimmit</t>
   </si>
   <si>
-    <t>1,328.90</t>
-  </si>
-  <si>
     <t>5.60</t>
   </si>
   <si>
@@ -1072,9 +895,6 @@
     <t>Donley</t>
   </si>
   <si>
-    <t>926.90</t>
-  </si>
-  <si>
     <t>6.10</t>
   </si>
   <si>
@@ -1084,9 +904,6 @@
     <t>Duval</t>
   </si>
   <si>
-    <t>1,793.50</t>
-  </si>
-  <si>
     <t>2.10</t>
   </si>
   <si>
@@ -1102,9 +919,6 @@
     <t>Eastland</t>
   </si>
   <si>
-    <t>926.50</t>
-  </si>
-  <si>
     <t>5.40</t>
   </si>
   <si>
@@ -1120,9 +934,6 @@
     <t>Ector</t>
   </si>
   <si>
-    <t>897.80</t>
-  </si>
-  <si>
     <t>4.00</t>
   </si>
   <si>
@@ -1138,18 +949,12 @@
     <t>Edwards</t>
   </si>
   <si>
-    <t>2,117.90</t>
-  </si>
-  <si>
     <t>2,119.90</t>
   </si>
   <si>
     <t>El Paso</t>
   </si>
   <si>
-    <t>1,013.20</t>
-  </si>
-  <si>
     <t>1,015.30</t>
   </si>
   <si>
@@ -1162,9 +967,6 @@
     <t>Ellis</t>
   </si>
   <si>
-    <t>935.90</t>
-  </si>
-  <si>
     <t>16.10</t>
   </si>
   <si>
@@ -1180,9 +982,6 @@
     <t>Erath</t>
   </si>
   <si>
-    <t>1,083.20</t>
-  </si>
-  <si>
     <t>6.60</t>
   </si>
   <si>
@@ -1198,9 +997,6 @@
     <t>Falls</t>
   </si>
   <si>
-    <t>765.50</t>
-  </si>
-  <si>
     <t>8.40</t>
   </si>
   <si>
@@ -1216,9 +1012,6 @@
     <t>Fannin</t>
   </si>
   <si>
-    <t>890.80</t>
-  </si>
-  <si>
     <t>8.00</t>
   </si>
   <si>
@@ -1234,9 +1027,6 @@
     <t>Fayette</t>
   </si>
   <si>
-    <t>949.90</t>
-  </si>
-  <si>
     <t>959.80</t>
   </si>
   <si>
@@ -1249,18 +1039,12 @@
     <t>Fisher</t>
   </si>
   <si>
-    <t>899.00</t>
-  </si>
-  <si>
     <t>2.80</t>
   </si>
   <si>
     <t>Floyd</t>
   </si>
   <si>
-    <t>992.10</t>
-  </si>
-  <si>
     <t>992.50</t>
   </si>
   <si>
@@ -1273,9 +1057,6 @@
     <t>Foard</t>
   </si>
   <si>
-    <t>704.40</t>
-  </si>
-  <si>
     <t>3.30</t>
   </si>
   <si>
@@ -1285,9 +1066,6 @@
     <t>Fort Bend</t>
   </si>
   <si>
-    <t>861.70</t>
-  </si>
-  <si>
     <t>23.60</t>
   </si>
   <si>
@@ -1303,9 +1081,6 @@
     <t>Franklin</t>
   </si>
   <si>
-    <t>284.40</t>
-  </si>
-  <si>
     <t>10.40</t>
   </si>
   <si>
@@ -1321,9 +1096,6 @@
     <t>Freestone</t>
   </si>
   <si>
-    <t>877.70</t>
-  </si>
-  <si>
     <t>14.30</t>
   </si>
   <si>
@@ -1339,9 +1111,6 @@
     <t>Frio</t>
   </si>
   <si>
-    <t>1,133.50</t>
-  </si>
-  <si>
     <t>0.80</t>
   </si>
   <si>
@@ -1357,9 +1126,6 @@
     <t>Gaines</t>
   </si>
   <si>
-    <t>1,502.40</t>
-  </si>
-  <si>
     <t>0.50</t>
   </si>
   <si>
@@ -1375,9 +1141,6 @@
     <t>Galveston</t>
   </si>
   <si>
-    <t>379.00</t>
-  </si>
-  <si>
     <t>494.90</t>
   </si>
   <si>
@@ -1393,9 +1156,6 @@
     <t>Garza</t>
   </si>
   <si>
-    <t>893.40</t>
-  </si>
-  <si>
     <t>896.20</t>
   </si>
   <si>
@@ -1408,9 +1168,6 @@
     <t>Gillespie</t>
   </si>
   <si>
-    <t>1,058.20</t>
-  </si>
-  <si>
     <t>1,061.70</t>
   </si>
   <si>
@@ -1426,18 +1183,12 @@
     <t>Goliad</t>
   </si>
   <si>
-    <t>852.00</t>
-  </si>
-  <si>
     <t>859.40</t>
   </si>
   <si>
     <t>Gonzales</t>
   </si>
   <si>
-    <t>1,066.70</t>
-  </si>
-  <si>
     <t>3.20</t>
   </si>
   <si>
@@ -1453,9 +1204,6 @@
     <t>Gray</t>
   </si>
   <si>
-    <t>926.00</t>
-  </si>
-  <si>
     <t>3.40</t>
   </si>
   <si>
@@ -1471,9 +1219,6 @@
     <t>Grayson</t>
   </si>
   <si>
-    <t>932.80</t>
-  </si>
-  <si>
     <t>46.40</t>
   </si>
   <si>
@@ -1489,9 +1234,6 @@
     <t>Gregg</t>
   </si>
   <si>
-    <t>273.40</t>
-  </si>
-  <si>
     <t>2.40</t>
   </si>
   <si>
@@ -1507,9 +1249,6 @@
     <t>Grimes</t>
   </si>
   <si>
-    <t>787.50</t>
-  </si>
-  <si>
     <t>14.10</t>
   </si>
   <si>
@@ -1525,9 +1264,6 @@
     <t>Guadalupe</t>
   </si>
   <si>
-    <t>711.30</t>
-  </si>
-  <si>
     <t>714.80</t>
   </si>
   <si>
@@ -1540,9 +1276,6 @@
     <t>Hale</t>
   </si>
   <si>
-    <t>1,004.70</t>
-  </si>
-  <si>
     <t>1,004.80</t>
   </si>
   <si>
@@ -1555,9 +1288,6 @@
     <t>Hall</t>
   </si>
   <si>
-    <t>883.50</t>
-  </si>
-  <si>
     <t>20.60</t>
   </si>
   <si>
@@ -1567,9 +1297,6 @@
     <t>Hamilton</t>
   </si>
   <si>
-    <t>835.90</t>
-  </si>
-  <si>
     <t>836.40</t>
   </si>
   <si>
@@ -1582,9 +1309,6 @@
     <t>Hansford</t>
   </si>
   <si>
-    <t>919.80</t>
-  </si>
-  <si>
     <t>0.60</t>
   </si>
   <si>
@@ -1600,18 +1324,12 @@
     <t>Hardeman</t>
   </si>
   <si>
-    <t>695.10</t>
-  </si>
-  <si>
     <t>696.90</t>
   </si>
   <si>
     <t>Hardin</t>
   </si>
   <si>
-    <t>890.60</t>
-  </si>
-  <si>
     <t>7.00</t>
   </si>
   <si>
@@ -1621,9 +1339,6 @@
     <t>Harris</t>
   </si>
   <si>
-    <t>1,706.20</t>
-  </si>
-  <si>
     <t>71.20</t>
   </si>
   <si>
@@ -1639,9 +1354,6 @@
     <t>Harrison</t>
   </si>
   <si>
-    <t>900.10</t>
-  </si>
-  <si>
     <t>15.70</t>
   </si>
   <si>
@@ -1657,9 +1369,6 @@
     <t>Hartley</t>
   </si>
   <si>
-    <t>1,462.00</t>
-  </si>
-  <si>
     <t>1.20</t>
   </si>
   <si>
@@ -1675,9 +1384,6 @@
     <t>Haskell</t>
   </si>
   <si>
-    <t>903.10</t>
-  </si>
-  <si>
     <t>7.10</t>
   </si>
   <si>
@@ -1705,9 +1411,6 @@
     <t>Hemphill</t>
   </si>
   <si>
-    <t>906.30</t>
-  </si>
-  <si>
     <t>5.90</t>
   </si>
   <si>
@@ -1723,9 +1426,6 @@
     <t>Henderson</t>
   </si>
   <si>
-    <t>873.80</t>
-  </si>
-  <si>
     <t>74.60</t>
   </si>
   <si>
@@ -1741,9 +1441,6 @@
     <t>Hidalgo</t>
   </si>
   <si>
-    <t>1,570.80</t>
-  </si>
-  <si>
     <t>12.00</t>
   </si>
   <si>
@@ -1759,9 +1456,6 @@
     <t>Hill</t>
   </si>
   <si>
-    <t>958.90</t>
-  </si>
-  <si>
     <t>26.90</t>
   </si>
   <si>
@@ -1777,9 +1471,6 @@
     <t>Hockley</t>
   </si>
   <si>
-    <t>908.40</t>
-  </si>
-  <si>
     <t>908.60</t>
   </si>
   <si>
@@ -1792,9 +1483,6 @@
     <t>Hood</t>
   </si>
   <si>
-    <t>420.70</t>
-  </si>
-  <si>
     <t>436.80</t>
   </si>
   <si>
@@ -1807,9 +1495,6 @@
     <t>Hopkins</t>
   </si>
   <si>
-    <t>767.40</t>
-  </si>
-  <si>
     <t>25.30</t>
   </si>
   <si>
@@ -1825,9 +1510,6 @@
     <t>Houston</t>
   </si>
   <si>
-    <t>1,231.00</t>
-  </si>
-  <si>
     <t>1,236.60</t>
   </si>
   <si>
@@ -1840,9 +1522,6 @@
     <t>Howard</t>
   </si>
   <si>
-    <t>900.80</t>
-  </si>
-  <si>
     <t>904.20</t>
   </si>
   <si>
@@ -1855,18 +1534,12 @@
     <t>Hudspeth</t>
   </si>
   <si>
-    <t>4,570.50</t>
-  </si>
-  <si>
     <t>4,571.40</t>
   </si>
   <si>
     <t>Hunt</t>
   </si>
   <si>
-    <t>840.40</t>
-  </si>
-  <si>
     <t>41.60</t>
   </si>
   <si>
@@ -1882,9 +1555,6 @@
     <t>Hutchinson</t>
   </si>
   <si>
-    <t>887.40</t>
-  </si>
-  <si>
     <t>7.50</t>
   </si>
   <si>
@@ -1900,18 +1570,12 @@
     <t>Irion</t>
   </si>
   <si>
-    <t>1,051.50</t>
-  </si>
-  <si>
     <t>1,051.60</t>
   </si>
   <si>
     <t>Jack</t>
   </si>
   <si>
-    <t>911.00</t>
-  </si>
-  <si>
     <t>920.10</t>
   </si>
   <si>
@@ -1924,9 +1588,6 @@
     <t>Jackson</t>
   </si>
   <si>
-    <t>829.40</t>
-  </si>
-  <si>
     <t>27.40</t>
   </si>
   <si>
@@ -1942,9 +1603,6 @@
     <t>Jasper</t>
   </si>
   <si>
-    <t>938.70</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -1966,9 +1624,6 @@
     <t>Jefferson</t>
   </si>
   <si>
-    <t>876.80</t>
-  </si>
-  <si>
     <t>235.90</t>
   </si>
   <si>
@@ -1996,9 +1651,6 @@
     <t>Jim Wells</t>
   </si>
   <si>
-    <t>865.20</t>
-  </si>
-  <si>
     <t>868.50</t>
   </si>
   <si>
@@ -2011,9 +1663,6 @@
     <t>Johnson</t>
   </si>
   <si>
-    <t>724.70</t>
-  </si>
-  <si>
     <t>9.40</t>
   </si>
   <si>
@@ -2029,9 +1678,6 @@
     <t>Jones</t>
   </si>
   <si>
-    <t>928.60</t>
-  </si>
-  <si>
     <t>937.10</t>
   </si>
   <si>
@@ -2044,9 +1690,6 @@
     <t>Karnes</t>
   </si>
   <si>
-    <t>747.80</t>
-  </si>
-  <si>
     <t>5.80</t>
   </si>
   <si>
@@ -2062,9 +1705,6 @@
     <t>Kaufman</t>
   </si>
   <si>
-    <t>780.90</t>
-  </si>
-  <si>
     <t>26.70</t>
   </si>
   <si>
@@ -2080,9 +1720,6 @@
     <t>Kendall</t>
   </si>
   <si>
-    <t>662.50</t>
-  </si>
-  <si>
     <t>663.00</t>
   </si>
   <si>
@@ -2095,9 +1732,6 @@
     <t>Kenedy</t>
   </si>
   <si>
-    <t>1,458.60</t>
-  </si>
-  <si>
     <t>487.20</t>
   </si>
   <si>
@@ -2107,18 +1741,12 @@
     <t>Kent</t>
   </si>
   <si>
-    <t>902.50</t>
-  </si>
-  <si>
     <t>902.90</t>
   </si>
   <si>
     <t>Kerr</t>
   </si>
   <si>
-    <t>1,103.30</t>
-  </si>
-  <si>
     <t>1,107.30</t>
   </si>
   <si>
@@ -2131,9 +1759,6 @@
     <t>Kimble</t>
   </si>
   <si>
-    <t>1,251.00</t>
-  </si>
-  <si>
     <t>1,251.20</t>
   </si>
   <si>
@@ -2146,9 +1771,6 @@
     <t>King</t>
   </si>
   <si>
-    <t>910.90</t>
-  </si>
-  <si>
     <t>2.50</t>
   </si>
   <si>
@@ -2158,9 +1780,6 @@
     <t>Kinney</t>
   </si>
   <si>
-    <t>1,360.50</t>
-  </si>
-  <si>
     <t>1,365.10</t>
   </si>
   <si>
@@ -2173,9 +1792,6 @@
     <t>Kleberg</t>
   </si>
   <si>
-    <t>881.30</t>
-  </si>
-  <si>
     <t>208.90</t>
   </si>
   <si>
@@ -2191,9 +1807,6 @@
     <t>Knox</t>
   </si>
   <si>
-    <t>850.60</t>
-  </si>
-  <si>
     <t>4.90</t>
   </si>
   <si>
@@ -2203,18 +1816,12 @@
     <t>La Salle</t>
   </si>
   <si>
-    <t>1,486.70</t>
-  </si>
-  <si>
     <t>1,494.20</t>
   </si>
   <si>
     <t>Lamar</t>
   </si>
   <si>
-    <t>907.30</t>
-  </si>
-  <si>
     <t>25.80</t>
   </si>
   <si>
@@ -2230,9 +1837,6 @@
     <t>Lamb</t>
   </si>
   <si>
-    <t>1,016.20</t>
-  </si>
-  <si>
     <t>1,017.70</t>
   </si>
   <si>
@@ -2245,9 +1849,6 @@
     <t>Lampasas</t>
   </si>
   <si>
-    <t>712.50</t>
-  </si>
-  <si>
     <t>713.60</t>
   </si>
   <si>
@@ -2272,9 +1873,6 @@
     <t>Lee</t>
   </si>
   <si>
-    <t>629.00</t>
-  </si>
-  <si>
     <t>634.10</t>
   </si>
   <si>
@@ -2287,18 +1885,12 @@
     <t>Leon</t>
   </si>
   <si>
-    <t>1,073.20</t>
-  </si>
-  <si>
     <t>1,080.60</t>
   </si>
   <si>
     <t>Liberty</t>
   </si>
   <si>
-    <t>1,158.30</t>
-  </si>
-  <si>
     <t>18.00</t>
   </si>
   <si>
@@ -2314,9 +1906,6 @@
     <t>Limestone</t>
   </si>
   <si>
-    <t>905.40</t>
-  </si>
-  <si>
     <t>27.70</t>
   </si>
   <si>
@@ -2341,9 +1930,6 @@
     <t>Live Oak</t>
   </si>
   <si>
-    <t>1,039.70</t>
-  </si>
-  <si>
     <t>39.20</t>
   </si>
   <si>
@@ -2353,9 +1939,6 @@
     <t>Llano</t>
   </si>
   <si>
-    <t>934.10</t>
-  </si>
-  <si>
     <t>31.80</t>
   </si>
   <si>
@@ -2371,9 +1954,6 @@
     <t>Loving</t>
   </si>
   <si>
-    <t>668.80</t>
-  </si>
-  <si>
     <t>7.70</t>
   </si>
   <si>
@@ -2395,9 +1975,6 @@
     <t>Lynn</t>
   </si>
   <si>
-    <t>891.90</t>
-  </si>
-  <si>
     <t>893.50</t>
   </si>
   <si>
@@ -2410,9 +1987,6 @@
     <t>Madison</t>
   </si>
   <si>
-    <t>466.10</t>
-  </si>
-  <si>
     <t>6.40</t>
   </si>
   <si>
@@ -2428,9 +2002,6 @@
     <t>Marion</t>
   </si>
   <si>
-    <t>380.90</t>
-  </si>
-  <si>
     <t>39.40</t>
   </si>
   <si>
@@ -2440,24 +2011,15 @@
     <t>Martin</t>
   </si>
   <si>
-    <t>915.00</t>
-  </si>
-  <si>
     <t>915.70</t>
   </si>
   <si>
     <t>Mason</t>
   </si>
   <si>
-    <t>928.80</t>
-  </si>
-  <si>
     <t>Matagorda</t>
   </si>
   <si>
-    <t>1,092.90</t>
-  </si>
-  <si>
     <t>519.60</t>
   </si>
   <si>
@@ -2473,9 +2035,6 @@
     <t>Maverick</t>
   </si>
   <si>
-    <t>1,279.50</t>
-  </si>
-  <si>
     <t>12.30</t>
   </si>
   <si>
@@ -2491,9 +2050,6 @@
     <t>McCulloch</t>
   </si>
   <si>
-    <t>1,065.60</t>
-  </si>
-  <si>
     <t>7.80</t>
   </si>
   <si>
@@ -2509,9 +2065,6 @@
     <t>McLennan</t>
   </si>
   <si>
-    <t>1,036.70</t>
-  </si>
-  <si>
     <t>1,060.20</t>
   </si>
   <si>
@@ -2524,9 +2077,6 @@
     <t>McMullen</t>
   </si>
   <si>
-    <t>1,139.80</t>
-  </si>
-  <si>
     <t>17.00</t>
   </si>
   <si>
@@ -2536,9 +2086,6 @@
     <t>Medina</t>
   </si>
   <si>
-    <t>1,325.40</t>
-  </si>
-  <si>
     <t>38.44</t>
   </si>
   <si>
@@ -2557,9 +2104,6 @@
     <t>Midland</t>
   </si>
   <si>
-    <t>900.40</t>
-  </si>
-  <si>
     <t>87.71</t>
   </si>
   <si>
@@ -2569,9 +2113,6 @@
     <t>Milam</t>
   </si>
   <si>
-    <t>1,016.70</t>
-  </si>
-  <si>
     <t>1,021.20</t>
   </si>
   <si>
@@ -2584,18 +2125,12 @@
     <t>Mills</t>
   </si>
   <si>
-    <t>748.20</t>
-  </si>
-  <si>
     <t>749.80</t>
   </si>
   <si>
     <t>Mitchell</t>
   </si>
   <si>
-    <t>911.10</t>
-  </si>
-  <si>
     <t>915.90</t>
   </si>
   <si>
@@ -2623,9 +2158,6 @@
     <t>Montgomery</t>
   </si>
   <si>
-    <t>1,042.30</t>
-  </si>
-  <si>
     <t>34.60</t>
   </si>
   <si>
@@ -2641,9 +2173,6 @@
     <t>Moore</t>
   </si>
   <si>
-    <t>899.70</t>
-  </si>
-  <si>
     <t>909.60</t>
   </si>
   <si>
@@ -2656,9 +2185,6 @@
     <t>Morris</t>
   </si>
   <si>
-    <t>252.00</t>
-  </si>
-  <si>
     <t>258.70</t>
   </si>
   <si>
@@ -2671,18 +2197,12 @@
     <t>Motley</t>
   </si>
   <si>
-    <t>989.60</t>
-  </si>
-  <si>
     <t>989.80</t>
   </si>
   <si>
     <t>Nacogdoches</t>
   </si>
   <si>
-    <t>946.60</t>
-  </si>
-  <si>
     <t>981.20</t>
   </si>
   <si>
@@ -2695,9 +2215,6 @@
     <t>Navarro</t>
   </si>
   <si>
-    <t>1,009.60</t>
-  </si>
-  <si>
     <t>76.30</t>
   </si>
   <si>
@@ -2713,18 +2230,12 @@
     <t>Newton</t>
   </si>
   <si>
-    <t>933.70</t>
-  </si>
-  <si>
     <t>939.70</t>
   </si>
   <si>
     <t>Nolan</t>
   </si>
   <si>
-    <t>912.00</t>
-  </si>
-  <si>
     <t>913.90</t>
   </si>
   <si>
@@ -2737,9 +2248,6 @@
     <t>Nueces</t>
   </si>
   <si>
-    <t>839.10</t>
-  </si>
-  <si>
     <t>326.40</t>
   </si>
   <si>
@@ -2755,9 +2263,6 @@
     <t>Ochiltree</t>
   </si>
   <si>
-    <t>917.70</t>
-  </si>
-  <si>
     <t>918.20</t>
   </si>
   <si>
@@ -2770,18 +2275,12 @@
     <t>Oldham</t>
   </si>
   <si>
-    <t>1,500.50</t>
-  </si>
-  <si>
     <t>1,501.40</t>
   </si>
   <si>
     <t>Orange</t>
   </si>
   <si>
-    <t>333.80</t>
-  </si>
-  <si>
     <t>45.70</t>
   </si>
   <si>
@@ -2797,9 +2296,6 @@
     <t>Palo Pinto</t>
   </si>
   <si>
-    <t>952.50</t>
-  </si>
-  <si>
     <t>33.00</t>
   </si>
   <si>
@@ -2815,9 +2311,6 @@
     <t>Panola</t>
   </si>
   <si>
-    <t>811.40</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
@@ -2833,9 +2326,6 @@
     <t>Parker</t>
   </si>
   <si>
-    <t>903.70</t>
-  </si>
-  <si>
     <t>910.10</t>
   </si>
   <si>
@@ -2848,9 +2338,6 @@
     <t>Parmer</t>
   </si>
   <si>
-    <t>880.80</t>
-  </si>
-  <si>
     <t>4.40</t>
   </si>
   <si>
@@ -2866,9 +2353,6 @@
     <t>Pecos</t>
   </si>
   <si>
-    <t>4,763.80</t>
-  </si>
-  <si>
     <t>1.00</t>
   </si>
   <si>
@@ -2884,9 +2368,6 @@
     <t>Polk</t>
   </si>
   <si>
-    <t>1,057.00</t>
-  </si>
-  <si>
     <t>52.60</t>
   </si>
   <si>
@@ -2917,9 +2398,6 @@
     <t>Presidio</t>
   </si>
   <si>
-    <t>3,855.30</t>
-  </si>
-  <si>
     <t>3,855.90</t>
   </si>
   <si>
@@ -2932,9 +2410,6 @@
     <t>Rains</t>
   </si>
   <si>
-    <t>229.50</t>
-  </si>
-  <si>
     <t>29.40</t>
   </si>
   <si>
@@ -2950,9 +2425,6 @@
     <t>Randall</t>
   </si>
   <si>
-    <t>912.70</t>
-  </si>
-  <si>
     <t>9.70</t>
   </si>
   <si>
@@ -2968,9 +2440,6 @@
     <t>Reagan</t>
   </si>
   <si>
-    <t>1,175.30</t>
-  </si>
-  <si>
     <t>1,176.00</t>
   </si>
   <si>
@@ -2983,18 +2452,12 @@
     <t>Real</t>
   </si>
   <si>
-    <t>699.20</t>
-  </si>
-  <si>
     <t>700.10</t>
   </si>
   <si>
     <t>Red River</t>
   </si>
   <si>
-    <t>1,043.90</t>
-  </si>
-  <si>
     <t>12.80</t>
   </si>
   <si>
@@ -3010,9 +2473,6 @@
     <t>Reeves</t>
   </si>
   <si>
-    <t>2,635.40</t>
-  </si>
-  <si>
     <t>2,642.10</t>
   </si>
   <si>
@@ -3025,9 +2485,6 @@
     <t>Refugio</t>
   </si>
   <si>
-    <t>770.50</t>
-  </si>
-  <si>
     <t>47.80</t>
   </si>
   <si>
@@ -3049,9 +2506,6 @@
     <t>Robertson</t>
   </si>
   <si>
-    <t>855.20</t>
-  </si>
-  <si>
     <t>10.60</t>
   </si>
   <si>
@@ -3067,9 +2521,6 @@
     <t>Rockwall</t>
   </si>
   <si>
-    <t>127.20</t>
-  </si>
-  <si>
     <t>21.70</t>
   </si>
   <si>
@@ -3085,9 +2536,6 @@
     <t>Runnels</t>
   </si>
   <si>
-    <t>1,051.10</t>
-  </si>
-  <si>
     <t>6.00</t>
   </si>
   <si>
@@ -3103,9 +2551,6 @@
     <t>Rusk</t>
   </si>
   <si>
-    <t>924.00</t>
-  </si>
-  <si>
     <t>14.40</t>
   </si>
   <si>
@@ -3121,9 +2566,6 @@
     <t>Sabine</t>
   </si>
   <si>
-    <t>491.70</t>
-  </si>
-  <si>
     <t>84.90</t>
   </si>
   <si>
@@ -3133,9 +2575,6 @@
     <t>San Augustine</t>
   </si>
   <si>
-    <t>530.70</t>
-  </si>
-  <si>
     <t>61.60</t>
   </si>
   <si>
@@ -3145,9 +2584,6 @@
     <t>San Jacinto</t>
   </si>
   <si>
-    <t>569.20</t>
-  </si>
-  <si>
     <t>58.70</t>
   </si>
   <si>
@@ -3157,9 +2593,6 @@
     <t>San Patricio</t>
   </si>
   <si>
-    <t>693.40</t>
-  </si>
-  <si>
     <t>14.50</t>
   </si>
   <si>
@@ -3175,9 +2608,6 @@
     <t>San Saba</t>
   </si>
   <si>
-    <t>1,135.30</t>
-  </si>
-  <si>
     <t>1,138.50</t>
   </si>
   <si>
@@ -3190,9 +2620,6 @@
     <t>Schleicher</t>
   </si>
   <si>
-    <t>1,310.60</t>
-  </si>
-  <si>
     <t>1,310.70</t>
   </si>
   <si>
@@ -3211,9 +2638,6 @@
     <t>Shackelford</t>
   </si>
   <si>
-    <t>914.30</t>
-  </si>
-  <si>
     <t>1.30</t>
   </si>
   <si>
@@ -3223,9 +2647,6 @@
     <t>Shelby</t>
   </si>
   <si>
-    <t>795.60</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -3265,9 +2686,6 @@
     <t>Somervell</t>
   </si>
   <si>
-    <t>186.50</t>
-  </si>
-  <si>
     <t>5.50</t>
   </si>
   <si>
@@ -3277,9 +2695,6 @@
     <t>Starr</t>
   </si>
   <si>
-    <t>1,223.20</t>
-  </si>
-  <si>
     <t>1,229.10</t>
   </si>
   <si>
@@ -3292,9 +2707,6 @@
     <t>Stephens</t>
   </si>
   <si>
-    <t>896.70</t>
-  </si>
-  <si>
     <t>24.80</t>
   </si>
   <si>
@@ -3307,24 +2719,15 @@
     <t>Sterling</t>
   </si>
   <si>
-    <t>923.40</t>
-  </si>
-  <si>
     <t>923.50</t>
   </si>
   <si>
     <t>Stonewall</t>
   </si>
   <si>
-    <t>916.30</t>
-  </si>
-  <si>
     <t>Sutton</t>
   </si>
   <si>
-    <t>1,453.90</t>
-  </si>
-  <si>
     <t>1,454.40</t>
   </si>
   <si>
@@ -3337,9 +2740,6 @@
     <t>Swisher</t>
   </si>
   <si>
-    <t>890.20</t>
-  </si>
-  <si>
     <t>10.50</t>
   </si>
   <si>
@@ -3352,9 +2752,6 @@
     <t>Tarrant</t>
   </si>
   <si>
-    <t>865.30</t>
-  </si>
-  <si>
     <t>38.70</t>
   </si>
   <si>
@@ -3382,9 +2779,6 @@
     <t>Terrell</t>
   </si>
   <si>
-    <t>2,358.00</t>
-  </si>
-  <si>
     <t>2,358.10</t>
   </si>
   <si>
@@ -3406,18 +2800,12 @@
     <t>Throckmorton</t>
   </si>
   <si>
-    <t>912.60</t>
-  </si>
-  <si>
     <t>2.90</t>
   </si>
   <si>
     <t>Titus</t>
   </si>
   <si>
-    <t>406.10</t>
-  </si>
-  <si>
     <t>425.60</t>
   </si>
   <si>
@@ -3430,9 +2818,6 @@
     <t>Tom Green</t>
   </si>
   <si>
-    <t>1,522.00</t>
-  </si>
-  <si>
     <t>18.60</t>
   </si>
   <si>
@@ -3448,9 +2833,6 @@
     <t>Travis</t>
   </si>
   <si>
-    <t>993.50</t>
-  </si>
-  <si>
     <t>30.80</t>
   </si>
   <si>
@@ -3466,9 +2848,6 @@
     <t>Trinity</t>
   </si>
   <si>
-    <t>693.80</t>
-  </si>
-  <si>
     <t>20.20</t>
   </si>
   <si>
@@ -3484,9 +2863,6 @@
     <t>Tyler</t>
   </si>
   <si>
-    <t>924.40</t>
-  </si>
-  <si>
     <t>11.20</t>
   </si>
   <si>
@@ -3502,9 +2878,6 @@
     <t>Upshur</t>
   </si>
   <si>
-    <t>583.00</t>
-  </si>
-  <si>
     <t>9.60</t>
   </si>
   <si>
@@ -3520,18 +2893,12 @@
     <t>Upton</t>
   </si>
   <si>
-    <t>1,241.30</t>
-  </si>
-  <si>
     <t>1,241.50</t>
   </si>
   <si>
     <t>Uvalde</t>
   </si>
   <si>
-    <t>1,551.90</t>
-  </si>
-  <si>
     <t>1,558.60</t>
   </si>
   <si>
@@ -3544,9 +2911,6 @@
     <t>Val Verde</t>
   </si>
   <si>
-    <t>3,144.70</t>
-  </si>
-  <si>
     <t>87.90</t>
   </si>
   <si>
@@ -3562,9 +2926,6 @@
     <t>Van Zandt</t>
   </si>
   <si>
-    <t>842.60</t>
-  </si>
-  <si>
     <t>859.60</t>
   </si>
   <si>
@@ -3577,9 +2938,6 @@
     <t>Victoria</t>
   </si>
   <si>
-    <t>882.10</t>
-  </si>
-  <si>
     <t>73.37</t>
   </si>
   <si>
@@ -3589,9 +2947,6 @@
     <t>Walker</t>
   </si>
   <si>
-    <t>784.20</t>
-  </si>
-  <si>
     <t>17.30</t>
   </si>
   <si>
@@ -3607,9 +2962,6 @@
     <t>Waller</t>
   </si>
   <si>
-    <t>513.30</t>
-  </si>
-  <si>
     <t>517.90</t>
   </si>
   <si>
@@ -3622,9 +2974,6 @@
     <t>Ward</t>
   </si>
   <si>
-    <t>835.60</t>
-  </si>
-  <si>
     <t>835.80</t>
   </si>
   <si>
@@ -3637,9 +2986,6 @@
     <t>Washington</t>
   </si>
   <si>
-    <t>604.20</t>
-  </si>
-  <si>
     <t>17.60</t>
   </si>
   <si>
@@ -3655,9 +3001,6 @@
     <t>Webb</t>
   </si>
   <si>
-    <t>3,361.50</t>
-  </si>
-  <si>
     <t>3,375.60</t>
   </si>
   <si>
@@ -3670,9 +3013,6 @@
     <t>Wharton</t>
   </si>
   <si>
-    <t>1,086.20</t>
-  </si>
-  <si>
     <t>8.20</t>
   </si>
   <si>
@@ -3688,15 +3028,9 @@
     <t>Wheeler</t>
   </si>
   <si>
-    <t>914.50</t>
-  </si>
-  <si>
     <t>Wichita</t>
   </si>
   <si>
-    <t>627.60</t>
-  </si>
-  <si>
     <t>5.30</t>
   </si>
   <si>
@@ -3712,9 +3046,6 @@
     <t>Wilbarger</t>
   </si>
   <si>
-    <t>970.90</t>
-  </si>
-  <si>
     <t>978.00</t>
   </si>
   <si>
@@ -3727,9 +3058,6 @@
     <t>Willacy</t>
   </si>
   <si>
-    <t>590.60</t>
-  </si>
-  <si>
     <t>194.20</t>
   </si>
   <si>
@@ -3745,9 +3073,6 @@
     <t>Williamson</t>
   </si>
   <si>
-    <t>1,115.50</t>
-  </si>
-  <si>
     <t>1,131.60</t>
   </si>
   <si>
@@ -3760,9 +3085,6 @@
     <t>Wilson</t>
   </si>
   <si>
-    <t>803.70</t>
-  </si>
-  <si>
     <t>808.40</t>
   </si>
   <si>
@@ -3784,9 +3106,6 @@
     <t>Wise</t>
   </si>
   <si>
-    <t>904.40</t>
-  </si>
-  <si>
     <t>18.20</t>
   </si>
   <si>
@@ -3796,9 +3115,6 @@
     <t>Wood</t>
   </si>
   <si>
-    <t>645.20</t>
-  </si>
-  <si>
     <t>50.50</t>
   </si>
   <si>
@@ -3838,9 +3154,6 @@
     <t>Zapata</t>
   </si>
   <si>
-    <t>998.40</t>
-  </si>
-  <si>
     <t>59.60</t>
   </si>
   <si>
@@ -3854,9 +3167,6 @@
   </si>
   <si>
     <t>Zavala</t>
-  </si>
-  <si>
-    <t>1,297.40</t>
   </si>
   <si>
     <t>4.30</t>
@@ -3874,7 +3184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4382,7 +3692,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4390,6 +3700,13 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4744,15 +4061,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F255"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="B256" sqref="B256"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="35.47265625" customWidth="1"/>
-    <col min="2" max="2" width="26.26171875" customWidth="1"/>
+    <col min="2" max="2" width="26.26171875" style="5" customWidth="1"/>
     <col min="3" max="3" width="29.734375" customWidth="1"/>
     <col min="4" max="4" width="26.7890625" customWidth="1"/>
     <col min="5" max="5" width="37.05078125" customWidth="1"/>
@@ -4763,7 +4082,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -4783,5080 +4102,5080 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4">
+        <v>1062.5999999999999</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1500.7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
+        <v>797.8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4">
+        <v>252.1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4">
+        <v>903.3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="B7" s="4">
+        <v>909.1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1219.5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="B9" s="4">
+        <v>646.5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="B10" s="4">
+        <v>827</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="B11" s="4">
+        <v>791</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="B12" s="4">
+        <v>888.2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
+      </c>
+      <c r="B13" s="4">
+        <v>867.5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
+      </c>
+      <c r="B14" s="4">
+        <v>880.2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1053.8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1240.3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
+      </c>
+      <c r="B17" s="4">
+        <v>709.3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
+      </c>
+      <c r="B18" s="4">
+        <v>897.4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>101</v>
+        <v>83</v>
+      </c>
+      <c r="B19" s="4">
+        <v>983</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
+      </c>
+      <c r="B20" s="4">
+        <v>885</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1363.3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
+      </c>
+      <c r="B22" s="4">
+        <v>586.1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
+      </c>
+      <c r="B23" s="4">
+        <v>6183.8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
+      </c>
+      <c r="B24" s="4">
+        <v>900</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
+      </c>
+      <c r="B25" s="4">
+        <v>943.4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>141</v>
+        <v>116</v>
+      </c>
+      <c r="B26" s="4">
+        <v>944.5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>147</v>
+        <v>121</v>
+      </c>
+      <c r="B27" s="4">
+        <v>659.1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>153</v>
+        <v>126</v>
+      </c>
+      <c r="B28" s="4">
+        <v>994.8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>159</v>
+        <v>131</v>
+      </c>
+      <c r="B29" s="4">
+        <v>545.20000000000005</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>164</v>
+        <v>135</v>
+      </c>
+      <c r="B30" s="4">
+        <v>506.8</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>170</v>
+        <v>140</v>
+      </c>
+      <c r="B31" s="4">
+        <v>899.4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>175</v>
+        <v>144</v>
+      </c>
+      <c r="B32" s="4">
+        <v>891.7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>181</v>
+        <v>149</v>
+      </c>
+      <c r="B33" s="4">
+        <v>195.8</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>187</v>
+        <v>154</v>
+      </c>
+      <c r="B34" s="4">
+        <v>920.2</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>193</v>
+        <v>160</v>
+      </c>
+      <c r="B35" s="4">
+        <v>936.9</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>199</v>
+        <v>165</v>
+      </c>
+      <c r="B36" s="4">
+        <v>894.4</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>205</v>
+        <v>170</v>
+      </c>
+      <c r="B37" s="4">
+        <v>597.20000000000005</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>211</v>
+        <v>175</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1053</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>217</v>
+        <v>180</v>
+      </c>
+      <c r="B39" s="4">
+        <v>696.5</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>223</v>
+        <v>185</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1088.8</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>229</v>
+        <v>190</v>
+      </c>
+      <c r="B41" s="4">
+        <v>775.1</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>232</v>
+        <v>192</v>
+      </c>
+      <c r="B42" s="4">
+        <v>911.6</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>236</v>
+        <v>195</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1262.9000000000001</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>242</v>
+        <v>200</v>
+      </c>
+      <c r="B44" s="4">
+        <v>841.3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>248</v>
+        <v>206</v>
+      </c>
+      <c r="B45" s="4">
+        <v>918.4</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>195</v>
+        <v>209</v>
+      </c>
+      <c r="B46" s="4">
+        <v>960.3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>257</v>
+        <v>214</v>
+      </c>
+      <c r="B47" s="4">
+        <v>559.5</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>262</v>
+        <v>218</v>
+      </c>
+      <c r="B48" s="4">
+        <v>937.8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>267</v>
+        <v>222</v>
+      </c>
+      <c r="B49" s="4">
+        <v>983.8</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>270</v>
+        <v>224</v>
+      </c>
+      <c r="B50" s="4">
+        <v>874.8</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>276</v>
+        <v>229</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1052.2</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>282</v>
+        <v>234</v>
+      </c>
+      <c r="B52" s="4">
+        <v>900.6</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>285</v>
+        <v>236</v>
+      </c>
+      <c r="B53" s="4">
+        <v>785.1</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>290</v>
+        <v>240</v>
+      </c>
+      <c r="B54" s="4">
+        <v>2807.3</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>295</v>
+        <v>245</v>
+      </c>
+      <c r="B55" s="4">
+        <v>900.2</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>299</v>
+        <v>248</v>
+      </c>
+      <c r="B56" s="4">
+        <v>3812.2</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>303</v>
+        <v>251</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1503.1</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>305</v>
+        <v>253</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>309</v>
+        <v>256</v>
+      </c>
+      <c r="B58" s="4">
+        <v>873</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>315</v>
+        <v>261</v>
+      </c>
+      <c r="B59" s="4">
+        <v>900.3</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>321</v>
+        <v>266</v>
+      </c>
+      <c r="B60" s="4">
+        <v>1496.8</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>324</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>326</v>
+        <v>270</v>
+      </c>
+      <c r="B61" s="4">
+        <v>256.8</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>327</v>
+        <v>271</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>328</v>
+        <v>272</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>330</v>
+        <v>273</v>
+      </c>
+      <c r="B62" s="4">
+        <v>878.5</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>336</v>
+        <v>278</v>
+      </c>
+      <c r="B63" s="4">
+        <v>909</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>338</v>
+        <v>280</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>297</v>
+        <v>282</v>
+      </c>
+      <c r="B64" s="4">
+        <v>901.7</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>341</v>
+        <v>283</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>342</v>
+        <v>284</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>344</v>
+        <v>285</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1328.9</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>345</v>
+        <v>286</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>347</v>
+        <v>288</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>348</v>
+        <v>289</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>350</v>
+        <v>290</v>
+      </c>
+      <c r="B66" s="4">
+        <v>926.9</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>351</v>
+        <v>291</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>354</v>
+        <v>293</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1793.5</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>355</v>
+        <v>294</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>356</v>
+        <v>295</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>357</v>
+        <v>296</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>358</v>
+        <v>297</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>360</v>
+        <v>298</v>
+      </c>
+      <c r="B68" s="4">
+        <v>926.5</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>361</v>
+        <v>299</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>362</v>
+        <v>300</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>363</v>
+        <v>301</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>364</v>
+        <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>366</v>
+        <v>303</v>
+      </c>
+      <c r="B69" s="4">
+        <v>897.8</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>367</v>
+        <v>304</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>370</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>372</v>
+        <v>308</v>
+      </c>
+      <c r="B70" s="4">
+        <v>2117.9</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>375</v>
+        <v>310</v>
+      </c>
+      <c r="B71" s="4">
+        <v>1013.2</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>355</v>
+        <v>294</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>376</v>
+        <v>311</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>377</v>
+        <v>312</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>378</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>380</v>
+        <v>314</v>
+      </c>
+      <c r="B72" s="4">
+        <v>935.9</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>382</v>
+        <v>316</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>384</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>386</v>
+        <v>319</v>
+      </c>
+      <c r="B73" s="4">
+        <v>1083.2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>387</v>
+        <v>320</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>388</v>
+        <v>321</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>389</v>
+        <v>322</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>390</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>392</v>
+        <v>324</v>
+      </c>
+      <c r="B74" s="4">
+        <v>765.5</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>393</v>
+        <v>325</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>394</v>
+        <v>326</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>395</v>
+        <v>327</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>396</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>398</v>
+        <v>329</v>
+      </c>
+      <c r="B75" s="4">
+        <v>890.8</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>399</v>
+        <v>330</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>400</v>
+        <v>331</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>401</v>
+        <v>332</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>402</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>404</v>
+        <v>334</v>
+      </c>
+      <c r="B76" s="4">
+        <v>949.9</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>407</v>
+        <v>337</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>409</v>
+        <v>338</v>
+      </c>
+      <c r="B77" s="4">
+        <v>899</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>410</v>
+        <v>339</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>412</v>
+        <v>340</v>
+      </c>
+      <c r="B78" s="4">
+        <v>992.1</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>413</v>
+        <v>341</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>414</v>
+        <v>342</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>415</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>417</v>
+        <v>344</v>
+      </c>
+      <c r="B79" s="4">
+        <v>704.4</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>418</v>
+        <v>345</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>419</v>
+        <v>346</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>421</v>
+        <v>347</v>
+      </c>
+      <c r="B80" s="4">
+        <v>861.7</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>422</v>
+        <v>348</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>423</v>
+        <v>349</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>424</v>
+        <v>350</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>425</v>
+        <v>351</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>427</v>
+        <v>352</v>
+      </c>
+      <c r="B81" s="4">
+        <v>284.39999999999998</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>428</v>
+        <v>353</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>429</v>
+        <v>354</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>430</v>
+        <v>355</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>431</v>
+        <v>356</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>433</v>
+        <v>357</v>
+      </c>
+      <c r="B82" s="4">
+        <v>877.7</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>434</v>
+        <v>358</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>435</v>
+        <v>359</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>436</v>
+        <v>360</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>437</v>
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>439</v>
+        <v>362</v>
+      </c>
+      <c r="B83" s="4">
+        <v>1133.5</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>440</v>
+        <v>363</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>441</v>
+        <v>364</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>442</v>
+        <v>365</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>443</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>445</v>
+        <v>367</v>
+      </c>
+      <c r="B84" s="4">
+        <v>1502.4</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>446</v>
+        <v>368</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>447</v>
+        <v>369</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>448</v>
+        <v>370</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>449</v>
+        <v>371</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>451</v>
+        <v>372</v>
+      </c>
+      <c r="B85" s="4">
+        <v>379</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>452</v>
+        <v>373</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>453</v>
+        <v>374</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>454</v>
+        <v>375</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>455</v>
+        <v>376</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>457</v>
+        <v>377</v>
+      </c>
+      <c r="B86" s="4">
+        <v>893.4</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>410</v>
+        <v>339</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>458</v>
+        <v>378</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>459</v>
+        <v>379</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>460</v>
+        <v>380</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>462</v>
+        <v>381</v>
+      </c>
+      <c r="B87" s="4">
+        <v>1058.2</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>341</v>
+        <v>283</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>463</v>
+        <v>382</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>464</v>
+        <v>383</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>465</v>
+        <v>384</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>295</v>
+        <v>385</v>
+      </c>
+      <c r="B88" s="4">
+        <v>900.2</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>468</v>
+        <v>386</v>
+      </c>
+      <c r="B89" s="4">
+        <v>852</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>469</v>
+        <v>387</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>471</v>
+        <v>388</v>
+      </c>
+      <c r="B90" s="4">
+        <v>1066.7</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>472</v>
+        <v>389</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>473</v>
+        <v>390</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>474</v>
+        <v>391</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>475</v>
+        <v>392</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>477</v>
+        <v>393</v>
+      </c>
+      <c r="B91" s="4">
+        <v>926</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>478</v>
+        <v>394</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>479</v>
+        <v>395</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>480</v>
+        <v>396</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>481</v>
+        <v>397</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>483</v>
+        <v>398</v>
+      </c>
+      <c r="B92" s="4">
+        <v>932.8</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>484</v>
+        <v>399</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>485</v>
+        <v>400</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>486</v>
+        <v>401</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>487</v>
+        <v>402</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>489</v>
+        <v>403</v>
+      </c>
+      <c r="B93" s="4">
+        <v>273.39999999999998</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>490</v>
+        <v>404</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>491</v>
+        <v>405</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>492</v>
+        <v>406</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>493</v>
+        <v>407</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>495</v>
+        <v>408</v>
+      </c>
+      <c r="B94" s="4">
+        <v>787.5</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>496</v>
+        <v>409</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>497</v>
+        <v>410</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>498</v>
+        <v>411</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>499</v>
+        <v>412</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>501</v>
+        <v>413</v>
+      </c>
+      <c r="B95" s="4">
+        <v>711.3</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>341</v>
+        <v>283</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>502</v>
+        <v>414</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>503</v>
+        <v>415</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>504</v>
+        <v>416</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>506</v>
+        <v>417</v>
+      </c>
+      <c r="B96" s="4">
+        <v>1004.7</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>507</v>
+        <v>418</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>508</v>
+        <v>419</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>509</v>
+        <v>420</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>511</v>
+        <v>421</v>
+      </c>
+      <c r="B97" s="4">
+        <v>883.5</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>512</v>
+        <v>422</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>513</v>
+        <v>423</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>515</v>
+        <v>424</v>
+      </c>
+      <c r="B98" s="4">
+        <v>835.9</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>446</v>
+        <v>368</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>516</v>
+        <v>425</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>517</v>
+        <v>426</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>518</v>
+        <v>427</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>520</v>
+        <v>428</v>
+      </c>
+      <c r="B99" s="4">
+        <v>919.8</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>521</v>
+        <v>429</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>522</v>
+        <v>430</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>523</v>
+        <v>431</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>524</v>
+        <v>432</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>526</v>
+        <v>433</v>
+      </c>
+      <c r="B100" s="4">
+        <v>695.1</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>527</v>
+        <v>434</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>529</v>
+        <v>435</v>
+      </c>
+      <c r="B101" s="4">
+        <v>890.6</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>530</v>
+        <v>436</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>531</v>
+        <v>437</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>533</v>
+        <v>438</v>
+      </c>
+      <c r="B102" s="4">
+        <v>1706.2</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>534</v>
+        <v>439</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>535</v>
+        <v>440</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>536</v>
+        <v>441</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>537</v>
+        <v>442</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>539</v>
+        <v>443</v>
+      </c>
+      <c r="B103" s="4">
+        <v>900.1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>540</v>
+        <v>444</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>541</v>
+        <v>445</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>542</v>
+        <v>446</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>543</v>
+        <v>447</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>545</v>
+        <v>448</v>
+      </c>
+      <c r="B104" s="4">
+        <v>1462</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>546</v>
+        <v>449</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>547</v>
+        <v>450</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>548</v>
+        <v>451</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>549</v>
+        <v>452</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>551</v>
+        <v>453</v>
+      </c>
+      <c r="B105" s="4">
+        <v>903.1</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>552</v>
+        <v>454</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>553</v>
+        <v>455</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>554</v>
+        <v>456</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>555</v>
+        <v>457</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>149</v>
+        <v>458</v>
+      </c>
+      <c r="B106" s="4">
+        <v>676.9</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>557</v>
+        <v>459</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>558</v>
+        <v>460</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>559</v>
+        <v>461</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>561</v>
+        <v>462</v>
+      </c>
+      <c r="B107" s="4">
+        <v>906.3</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>562</v>
+        <v>463</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>563</v>
+        <v>464</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>564</v>
+        <v>465</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>565</v>
+        <v>466</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>567</v>
+        <v>467</v>
+      </c>
+      <c r="B108" s="4">
+        <v>873.8</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>568</v>
+        <v>468</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>569</v>
+        <v>469</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>570</v>
+        <v>470</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>571</v>
+        <v>471</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>573</v>
+        <v>472</v>
+      </c>
+      <c r="B109" s="4">
+        <v>1570.8</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>574</v>
+        <v>473</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>575</v>
+        <v>474</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>576</v>
+        <v>475</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>577</v>
+        <v>476</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>579</v>
+        <v>477</v>
+      </c>
+      <c r="B110" s="4">
+        <v>958.9</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>580</v>
+        <v>478</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>581</v>
+        <v>479</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>582</v>
+        <v>480</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>583</v>
+        <v>481</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>585</v>
+        <v>482</v>
+      </c>
+      <c r="B111" s="4">
+        <v>908.4</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>586</v>
+        <v>483</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>587</v>
+        <v>484</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>588</v>
+        <v>485</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>590</v>
+        <v>486</v>
+      </c>
+      <c r="B112" s="4">
+        <v>420.7</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>591</v>
+        <v>487</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>592</v>
+        <v>488</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>593</v>
+        <v>489</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>595</v>
+        <v>490</v>
+      </c>
+      <c r="B113" s="4">
+        <v>767.4</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>596</v>
+        <v>491</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>597</v>
+        <v>492</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>598</v>
+        <v>493</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>599</v>
+        <v>494</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>601</v>
+        <v>495</v>
+      </c>
+      <c r="B114" s="4">
+        <v>1231</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>345</v>
+        <v>286</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>602</v>
+        <v>496</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>603</v>
+        <v>497</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>604</v>
+        <v>498</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>606</v>
+        <v>499</v>
+      </c>
+      <c r="B115" s="4">
+        <v>900.8</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>478</v>
+        <v>394</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>607</v>
+        <v>500</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>608</v>
+        <v>501</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>609</v>
+        <v>502</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>611</v>
+        <v>503</v>
+      </c>
+      <c r="B116" s="4">
+        <v>4570.5</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>440</v>
+        <v>363</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>612</v>
+        <v>504</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>614</v>
+        <v>505</v>
+      </c>
+      <c r="B117" s="4">
+        <v>840.4</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>615</v>
+        <v>506</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>616</v>
+        <v>507</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>617</v>
+        <v>508</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>618</v>
+        <v>509</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>620</v>
+        <v>510</v>
+      </c>
+      <c r="B118" s="4">
+        <v>887.4</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>621</v>
+        <v>511</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>622</v>
+        <v>512</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>623</v>
+        <v>513</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>624</v>
+        <v>514</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>626</v>
+        <v>515</v>
+      </c>
+      <c r="B119" s="4">
+        <v>1051.5</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>627</v>
+        <v>516</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>629</v>
+        <v>517</v>
+      </c>
+      <c r="B120" s="4">
+        <v>911</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>630</v>
+        <v>518</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>631</v>
+        <v>519</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>632</v>
+        <v>520</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>634</v>
+        <v>521</v>
+      </c>
+      <c r="B121" s="4">
+        <v>829.4</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>635</v>
+        <v>522</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>636</v>
+        <v>523</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>637</v>
+        <v>524</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>638</v>
+        <v>525</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>640</v>
+        <v>526</v>
+      </c>
+      <c r="B122" s="4">
+        <v>938.7</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>641</v>
+        <v>527</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>642</v>
+        <v>528</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>643</v>
+        <v>529</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>644</v>
+        <v>530</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>646</v>
+        <v>531</v>
+      </c>
+      <c r="B123" s="4">
+        <v>2264.6</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>646</v>
+        <v>532</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>648</v>
+        <v>533</v>
+      </c>
+      <c r="B124" s="4">
+        <v>876.8</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>649</v>
+        <v>534</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>650</v>
+        <v>535</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>651</v>
+        <v>536</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>652</v>
+        <v>537</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>654</v>
+        <v>538</v>
+      </c>
+      <c r="B125" s="4">
+        <v>1136.2</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>654</v>
+        <v>539</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>655</v>
+        <v>540</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>656</v>
+        <v>541</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>658</v>
+        <v>542</v>
+      </c>
+      <c r="B126" s="4">
+        <v>865.2</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>478</v>
+        <v>394</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>659</v>
+        <v>543</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>660</v>
+        <v>544</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>661</v>
+        <v>545</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>663</v>
+        <v>546</v>
+      </c>
+      <c r="B127" s="4">
+        <v>724.7</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>664</v>
+        <v>547</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>665</v>
+        <v>548</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>666</v>
+        <v>549</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>667</v>
+        <v>550</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>669</v>
+        <v>551</v>
+      </c>
+      <c r="B128" s="4">
+        <v>928.6</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>670</v>
+        <v>552</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>671</v>
+        <v>553</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>672</v>
+        <v>554</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>674</v>
+        <v>555</v>
+      </c>
+      <c r="B129" s="4">
+        <v>747.8</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>675</v>
+        <v>556</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>676</v>
+        <v>557</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>677</v>
+        <v>558</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>678</v>
+        <v>559</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>680</v>
+        <v>560</v>
+      </c>
+      <c r="B130" s="4">
+        <v>780.9</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>681</v>
+        <v>561</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>682</v>
+        <v>562</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>683</v>
+        <v>563</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>684</v>
+        <v>564</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>686</v>
+        <v>565</v>
+      </c>
+      <c r="B131" s="4">
+        <v>662.5</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>521</v>
+        <v>429</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>687</v>
+        <v>566</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>688</v>
+        <v>567</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>689</v>
+        <v>568</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>691</v>
+        <v>569</v>
+      </c>
+      <c r="B132" s="4">
+        <v>1458.6</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>692</v>
+        <v>570</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>693</v>
+        <v>571</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>695</v>
+        <v>572</v>
+      </c>
+      <c r="B133" s="4">
+        <v>902.5</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>696</v>
+        <v>573</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>698</v>
+        <v>574</v>
+      </c>
+      <c r="B134" s="4">
+        <v>1103.3</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>367</v>
+        <v>304</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>699</v>
+        <v>575</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>700</v>
+        <v>576</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>701</v>
+        <v>577</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>703</v>
+        <v>578</v>
+      </c>
+      <c r="B135" s="4">
+        <v>1251</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>704</v>
+        <v>579</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>705</v>
+        <v>580</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>706</v>
+        <v>581</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>708</v>
+        <v>582</v>
+      </c>
+      <c r="B136" s="4">
+        <v>910.9</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>709</v>
+        <v>583</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>710</v>
+        <v>584</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>712</v>
+        <v>585</v>
+      </c>
+      <c r="B137" s="4">
+        <v>1360.5</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>713</v>
+        <v>586</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>714</v>
+        <v>587</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>715</v>
+        <v>588</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>717</v>
+        <v>589</v>
+      </c>
+      <c r="B138" s="4">
+        <v>881.3</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>718</v>
+        <v>590</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>719</v>
+        <v>591</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>720</v>
+        <v>592</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>721</v>
+        <v>593</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>723</v>
+        <v>594</v>
+      </c>
+      <c r="B139" s="4">
+        <v>850.6</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>724</v>
+        <v>595</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>725</v>
+        <v>596</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>727</v>
+        <v>597</v>
+      </c>
+      <c r="B140" s="4">
+        <v>1486.7</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>621</v>
+        <v>511</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>728</v>
+        <v>598</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>465</v>
+        <v>384</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>464</v>
+        <v>383</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>730</v>
+        <v>599</v>
+      </c>
+      <c r="B141" s="4">
+        <v>907.3</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>731</v>
+        <v>600</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>732</v>
+        <v>601</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>733</v>
+        <v>602</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>734</v>
+        <v>603</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>736</v>
+        <v>604</v>
+      </c>
+      <c r="B142" s="4">
+        <v>1016.2</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>737</v>
+        <v>605</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>738</v>
+        <v>606</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>739</v>
+        <v>607</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>741</v>
+        <v>608</v>
+      </c>
+      <c r="B143" s="4">
+        <v>712.5</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>742</v>
+        <v>609</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>743</v>
+        <v>610</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>744</v>
+        <v>611</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>642</v>
+        <v>612</v>
+      </c>
+      <c r="B144" s="4">
+        <v>969.7</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>746</v>
+        <v>613</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>747</v>
+        <v>614</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>748</v>
+        <v>615</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>750</v>
+        <v>616</v>
+      </c>
+      <c r="B145" s="4">
+        <v>629</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>751</v>
+        <v>617</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>752</v>
+        <v>618</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>753</v>
+        <v>619</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>755</v>
+        <v>620</v>
+      </c>
+      <c r="B146" s="4">
+        <v>1073.2</v>
       </c>
       <c r="C146" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>756</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>758</v>
+        <v>622</v>
+      </c>
+      <c r="B147" s="4">
+        <v>1158.3</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>759</v>
+        <v>623</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>760</v>
+        <v>624</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>761</v>
+        <v>625</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>762</v>
+        <v>626</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>764</v>
+        <v>627</v>
+      </c>
+      <c r="B148" s="4">
+        <v>905.4</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>765</v>
+        <v>628</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>766</v>
+        <v>629</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>767</v>
+        <v>630</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>768</v>
+        <v>631</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>770</v>
+        <v>632</v>
+      </c>
+      <c r="B149" s="4">
+        <v>932.2</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>771</v>
+        <v>634</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>773</v>
+        <v>635</v>
+      </c>
+      <c r="B150" s="4">
+        <v>1039.7</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>774</v>
+        <v>636</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>775</v>
+        <v>637</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>777</v>
+        <v>638</v>
+      </c>
+      <c r="B151" s="4">
+        <v>934.1</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>778</v>
+        <v>639</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>779</v>
+        <v>640</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>780</v>
+        <v>641</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>781</v>
+        <v>642</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>783</v>
+        <v>643</v>
+      </c>
+      <c r="B152" s="4">
+        <v>668.8</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>784</v>
+        <v>644</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>785</v>
+        <v>645</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>67</v>
+        <v>646</v>
+      </c>
+      <c r="B153" s="4">
+        <v>895.6</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>787</v>
+        <v>647</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>788</v>
+        <v>648</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>789</v>
+        <v>649</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>791</v>
+        <v>650</v>
+      </c>
+      <c r="B154" s="4">
+        <v>891.9</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>792</v>
+        <v>651</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>793</v>
+        <v>652</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>794</v>
+        <v>653</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>796</v>
+        <v>654</v>
+      </c>
+      <c r="B155" s="4">
+        <v>466.1</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>797</v>
+        <v>655</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>798</v>
+        <v>656</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>799</v>
+        <v>657</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>800</v>
+        <v>658</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>802</v>
+        <v>659</v>
+      </c>
+      <c r="B156" s="4">
+        <v>380.9</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>803</v>
+        <v>660</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>804</v>
+        <v>661</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>806</v>
+        <v>662</v>
+      </c>
+      <c r="B157" s="4">
+        <v>915</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>807</v>
+        <v>663</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>809</v>
+        <v>664</v>
+      </c>
+      <c r="B158" s="4">
+        <v>928.8</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>478</v>
+        <v>394</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>770</v>
+        <v>633</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>811</v>
+        <v>665</v>
+      </c>
+      <c r="B159" s="4">
+        <v>1092.9000000000001</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>812</v>
+        <v>666</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>813</v>
+        <v>667</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>814</v>
+        <v>668</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>815</v>
+        <v>669</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>817</v>
+        <v>670</v>
+      </c>
+      <c r="B160" s="4">
+        <v>1279.5</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>818</v>
+        <v>671</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>819</v>
+        <v>672</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>820</v>
+        <v>673</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>821</v>
+        <v>674</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>823</v>
+        <v>675</v>
+      </c>
+      <c r="B161" s="4">
+        <v>1065.5999999999999</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>824</v>
+        <v>676</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>825</v>
+        <v>677</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>826</v>
+        <v>678</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>827</v>
+        <v>679</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>829</v>
+        <v>680</v>
+      </c>
+      <c r="B162" s="4">
+        <v>1036.7</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>422</v>
+        <v>348</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>830</v>
+        <v>681</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>831</v>
+        <v>682</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>832</v>
+        <v>683</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>834</v>
+        <v>684</v>
+      </c>
+      <c r="B163" s="4">
+        <v>1139.8</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>835</v>
+        <v>685</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>836</v>
+        <v>686</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>838</v>
+        <v>687</v>
+      </c>
+      <c r="B164" s="4">
+        <v>1325.4</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>839</v>
+        <v>688</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>840</v>
+        <v>689</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>842</v>
+        <v>690</v>
+      </c>
+      <c r="B165" s="4">
+        <v>902</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>843</v>
+        <v>692</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>845</v>
+        <v>693</v>
+      </c>
+      <c r="B166" s="4">
+        <v>900.4</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>842</v>
+        <v>691</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>846</v>
+        <v>694</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>847</v>
+        <v>695</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>849</v>
+        <v>696</v>
+      </c>
+      <c r="B167" s="4">
+        <v>1016.7</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>850</v>
+        <v>697</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>851</v>
+        <v>698</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>852</v>
+        <v>699</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>854</v>
+        <v>700</v>
+      </c>
+      <c r="B168" s="4">
+        <v>748.2</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>855</v>
+        <v>701</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>857</v>
+        <v>702</v>
+      </c>
+      <c r="B169" s="4">
+        <v>911.1</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>858</v>
+        <v>703</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>859</v>
+        <v>704</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>860</v>
+        <v>705</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>862</v>
+        <v>706</v>
+      </c>
+      <c r="B170" s="4">
+        <v>930.9</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>863</v>
+        <v>708</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>864</v>
+        <v>709</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>865</v>
+        <v>710</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>867</v>
+        <v>711</v>
+      </c>
+      <c r="B171" s="4">
+        <v>1042.3</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>868</v>
+        <v>712</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>869</v>
+        <v>713</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>870</v>
+        <v>714</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>871</v>
+        <v>715</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>873</v>
+        <v>716</v>
+      </c>
+      <c r="B172" s="4">
+        <v>899.7</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>874</v>
+        <v>717</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>875</v>
+        <v>718</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>876</v>
+        <v>719</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>878</v>
+        <v>720</v>
+      </c>
+      <c r="B173" s="4">
+        <v>252</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>879</v>
+        <v>721</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>880</v>
+        <v>722</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>881</v>
+        <v>723</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>883</v>
+        <v>724</v>
+      </c>
+      <c r="B174" s="4">
+        <v>989.6</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>884</v>
+        <v>725</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>886</v>
+        <v>726</v>
+      </c>
+      <c r="B175" s="4">
+        <v>946.6</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>868</v>
+        <v>712</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>887</v>
+        <v>727</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>888</v>
+        <v>728</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>889</v>
+        <v>729</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>891</v>
+        <v>730</v>
+      </c>
+      <c r="B176" s="4">
+        <v>1009.6</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>892</v>
+        <v>731</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>893</v>
+        <v>732</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>894</v>
+        <v>733</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>895</v>
+        <v>734</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>897</v>
+        <v>735</v>
+      </c>
+      <c r="B177" s="4">
+        <v>933.7</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>351</v>
+        <v>291</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>898</v>
+        <v>736</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>900</v>
+        <v>737</v>
+      </c>
+      <c r="B178" s="4">
+        <v>912</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>901</v>
+        <v>738</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>902</v>
+        <v>739</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>903</v>
+        <v>740</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>905</v>
+        <v>741</v>
+      </c>
+      <c r="B179" s="4">
+        <v>839.1</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>906</v>
+        <v>742</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>907</v>
+        <v>743</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>908</v>
+        <v>744</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>909</v>
+        <v>745</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>911</v>
+        <v>746</v>
+      </c>
+      <c r="B180" s="4">
+        <v>917.7</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>446</v>
+        <v>368</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>912</v>
+        <v>747</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>913</v>
+        <v>748</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>914</v>
+        <v>749</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>916</v>
+        <v>750</v>
+      </c>
+      <c r="B181" s="4">
+        <v>1500.5</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>917</v>
+        <v>751</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="2" t="s">
-        <v>918</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>919</v>
+        <v>752</v>
+      </c>
+      <c r="B182" s="4">
+        <v>333.8</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>920</v>
+        <v>753</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>921</v>
+        <v>754</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>922</v>
+        <v>755</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>923</v>
+        <v>756</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>925</v>
+        <v>757</v>
+      </c>
+      <c r="B183" s="4">
+        <v>952.5</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>926</v>
+        <v>758</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>927</v>
+        <v>759</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>928</v>
+        <v>760</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>929</v>
+        <v>761</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>931</v>
+        <v>762</v>
+      </c>
+      <c r="B184" s="4">
+        <v>811.4</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>932</v>
+        <v>763</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>933</v>
+        <v>764</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>934</v>
+        <v>765</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>935</v>
+        <v>766</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>937</v>
+        <v>767</v>
+      </c>
+      <c r="B185" s="4">
+        <v>903.7</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>797</v>
+        <v>655</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>938</v>
+        <v>768</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>939</v>
+        <v>769</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>940</v>
+        <v>770</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>942</v>
+        <v>771</v>
+      </c>
+      <c r="B186" s="4">
+        <v>880.8</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>943</v>
+        <v>772</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>944</v>
+        <v>773</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>945</v>
+        <v>774</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>946</v>
+        <v>775</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>948</v>
+        <v>776</v>
+      </c>
+      <c r="B187" s="4">
+        <v>4763.8</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>949</v>
+        <v>777</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>950</v>
+        <v>778</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>951</v>
+        <v>779</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>952</v>
+        <v>780</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>954</v>
+        <v>781</v>
+      </c>
+      <c r="B188" s="4">
+        <v>1057</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>955</v>
+        <v>782</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>956</v>
+        <v>783</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>957</v>
+        <v>784</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>958</v>
+        <v>785</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>585</v>
+        <v>786</v>
+      </c>
+      <c r="B189" s="4">
+        <v>908.4</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>960</v>
+        <v>787</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>961</v>
+        <v>788</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>962</v>
+        <v>789</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>963</v>
+        <v>790</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>965</v>
+        <v>791</v>
+      </c>
+      <c r="B190" s="4">
+        <v>3855.3</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>966</v>
+        <v>792</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>967</v>
+        <v>793</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>968</v>
+        <v>794</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>970</v>
+        <v>795</v>
+      </c>
+      <c r="B191" s="4">
+        <v>229.5</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>971</v>
+        <v>796</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>972</v>
+        <v>797</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>973</v>
+        <v>798</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>974</v>
+        <v>799</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="2" t="s">
-        <v>975</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>976</v>
+        <v>800</v>
+      </c>
+      <c r="B192" s="4">
+        <v>912.7</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>977</v>
+        <v>801</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>978</v>
+        <v>802</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>979</v>
+        <v>803</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>980</v>
+        <v>804</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="2" t="s">
-        <v>981</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>982</v>
+        <v>805</v>
+      </c>
+      <c r="B193" s="4">
+        <v>1175.3</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>983</v>
+        <v>806</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>984</v>
+        <v>807</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>985</v>
+        <v>808</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>987</v>
+        <v>809</v>
+      </c>
+      <c r="B194" s="4">
+        <v>699.2</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>988</v>
+        <v>810</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>990</v>
+        <v>811</v>
+      </c>
+      <c r="B195" s="4">
+        <v>1043.9000000000001</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>991</v>
+        <v>812</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>992</v>
+        <v>813</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>993</v>
+        <v>814</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>994</v>
+        <v>815</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>996</v>
+        <v>816</v>
+      </c>
+      <c r="B196" s="4">
+        <v>2635.4</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>997</v>
+        <v>817</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>998</v>
+        <v>818</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>999</v>
+        <v>819</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>1001</v>
+        <v>820</v>
+      </c>
+      <c r="B197" s="4">
+        <v>770.5</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>1002</v>
+        <v>821</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>1003</v>
+        <v>822</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>1004</v>
+        <v>823</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>1005</v>
+        <v>824</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>189</v>
+        <v>825</v>
+      </c>
+      <c r="B198" s="4">
+        <v>924.1</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>1007</v>
+        <v>826</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="2" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>1009</v>
+        <v>827</v>
+      </c>
+      <c r="B199" s="4">
+        <v>855.2</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>1010</v>
+        <v>828</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>1011</v>
+        <v>829</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>1012</v>
+        <v>830</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>1013</v>
+        <v>831</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>1015</v>
+        <v>832</v>
+      </c>
+      <c r="B200" s="4">
+        <v>127.2</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>1016</v>
+        <v>833</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>1017</v>
+        <v>834</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>1018</v>
+        <v>835</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>1019</v>
+        <v>836</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>1021</v>
+        <v>837</v>
+      </c>
+      <c r="B201" s="4">
+        <v>1051.0999999999999</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>1022</v>
+        <v>838</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>1023</v>
+        <v>839</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>1024</v>
+        <v>840</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>1025</v>
+        <v>841</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>1027</v>
+        <v>842</v>
+      </c>
+      <c r="B202" s="4">
+        <v>924</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>1028</v>
+        <v>843</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>1029</v>
+        <v>844</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>1030</v>
+        <v>845</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>1031</v>
+        <v>846</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>1033</v>
+        <v>847</v>
+      </c>
+      <c r="B203" s="4">
+        <v>491.7</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>1034</v>
+        <v>848</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>1035</v>
+        <v>849</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>1037</v>
+        <v>850</v>
+      </c>
+      <c r="B204" s="4">
+        <v>530.70000000000005</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>1038</v>
+        <v>851</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>1039</v>
+        <v>852</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>1041</v>
+        <v>853</v>
+      </c>
+      <c r="B205" s="4">
+        <v>569.20000000000005</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>1042</v>
+        <v>854</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>1043</v>
+        <v>855</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>1045</v>
+        <v>856</v>
+      </c>
+      <c r="B206" s="4">
+        <v>693.4</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>1046</v>
+        <v>857</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>1047</v>
+        <v>858</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>1048</v>
+        <v>859</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>1049</v>
+        <v>860</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>1051</v>
+        <v>861</v>
+      </c>
+      <c r="B207" s="4">
+        <v>1135.3</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>472</v>
+        <v>389</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>1052</v>
+        <v>862</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>1053</v>
+        <v>863</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>1054</v>
+        <v>864</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>1056</v>
+        <v>865</v>
+      </c>
+      <c r="B208" s="4">
+        <v>1310.5999999999999</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>1057</v>
+        <v>866</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>764</v>
+        <v>867</v>
+      </c>
+      <c r="B209" s="4">
+        <v>905.4</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>355</v>
+        <v>294</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>1059</v>
+        <v>868</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>1060</v>
+        <v>869</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>1061</v>
+        <v>870</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>1063</v>
+        <v>871</v>
+      </c>
+      <c r="B210" s="4">
+        <v>914.3</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>1064</v>
+        <v>872</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>1065</v>
+        <v>873</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="2" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>1067</v>
+        <v>874</v>
+      </c>
+      <c r="B211" s="4">
+        <v>795.6</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>1068</v>
+        <v>875</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>1069</v>
+        <v>876</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>1070</v>
+        <v>877</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>1071</v>
+        <v>878</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="2" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>109</v>
+        <v>879</v>
+      </c>
+      <c r="B212" s="4">
+        <v>922.9</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>1073</v>
+        <v>880</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>1075</v>
+        <v>881</v>
+      </c>
+      <c r="B213" s="4">
+        <v>921.5</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>1076</v>
+        <v>883</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>1077</v>
+        <v>884</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>1078</v>
+        <v>885</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>1079</v>
+        <v>886</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>1081</v>
+        <v>887</v>
+      </c>
+      <c r="B214" s="4">
+        <v>186.5</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>1082</v>
+        <v>888</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>1083</v>
+        <v>889</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>1085</v>
+        <v>890</v>
+      </c>
+      <c r="B215" s="4">
+        <v>1223.2</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>562</v>
+        <v>463</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>1086</v>
+        <v>891</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>1087</v>
+        <v>892</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>1088</v>
+        <v>893</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="2" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>1090</v>
+        <v>894</v>
+      </c>
+      <c r="B216" s="4">
+        <v>896.7</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>1091</v>
+        <v>895</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>1075</v>
+        <v>882</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>1092</v>
+        <v>896</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>1093</v>
+        <v>897</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="2" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>1095</v>
+        <v>898</v>
+      </c>
+      <c r="B217" s="4">
+        <v>923.4</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>1096</v>
+        <v>899</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>1098</v>
+        <v>900</v>
+      </c>
+      <c r="B218" s="4">
+        <v>916.3</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="2" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>1100</v>
+        <v>901</v>
+      </c>
+      <c r="B219" s="4">
+        <v>1453.9</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>446</v>
+        <v>368</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>1101</v>
+        <v>902</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>1102</v>
+        <v>903</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>1103</v>
+        <v>904</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="2" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>1105</v>
+        <v>905</v>
+      </c>
+      <c r="B220" s="4">
+        <v>890.2</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>1106</v>
+        <v>906</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>787</v>
+        <v>647</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>1107</v>
+        <v>907</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>1108</v>
+        <v>908</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>1110</v>
+        <v>909</v>
+      </c>
+      <c r="B221" s="4">
+        <v>865.3</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>1111</v>
+        <v>910</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>1112</v>
+        <v>911</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>1113</v>
+        <v>912</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>1114</v>
+        <v>913</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="2" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>1065</v>
+        <v>914</v>
+      </c>
+      <c r="B222" s="4">
+        <v>915.5</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>1116</v>
+        <v>915</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>1117</v>
+        <v>916</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>1118</v>
+        <v>917</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="2" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>1120</v>
+        <v>918</v>
+      </c>
+      <c r="B223" s="4">
+        <v>2358</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>1121</v>
+        <v>919</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>1123</v>
+        <v>920</v>
+      </c>
+      <c r="B224" s="4">
+        <v>888.8</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>355</v>
+        <v>294</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>1124</v>
+        <v>922</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>1125</v>
+        <v>923</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>1126</v>
+        <v>924</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="2" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>1128</v>
+        <v>925</v>
+      </c>
+      <c r="B225" s="4">
+        <v>912.6</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>1129</v>
+        <v>926</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>1065</v>
+        <v>873</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="2" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>1131</v>
+        <v>927</v>
+      </c>
+      <c r="B226" s="4">
+        <v>406.1</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>1132</v>
+        <v>928</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>1133</v>
+        <v>929</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>1134</v>
+        <v>930</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="2" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>1136</v>
+        <v>931</v>
+      </c>
+      <c r="B227" s="4">
+        <v>1522</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>1137</v>
+        <v>932</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>1138</v>
+        <v>933</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>1139</v>
+        <v>934</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>1140</v>
+        <v>935</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>1142</v>
+        <v>936</v>
+      </c>
+      <c r="B228" s="4">
+        <v>993.5</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>1143</v>
+        <v>937</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>1144</v>
+        <v>938</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>1145</v>
+        <v>939</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>1146</v>
+        <v>940</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>1148</v>
+        <v>941</v>
+      </c>
+      <c r="B229" s="4">
+        <v>693.8</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>1149</v>
+        <v>942</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>1150</v>
+        <v>943</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>1151</v>
+        <v>944</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>1152</v>
+        <v>945</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="2" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>1154</v>
+        <v>946</v>
+      </c>
+      <c r="B230" s="4">
+        <v>924.4</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>1155</v>
+        <v>947</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>1156</v>
+        <v>948</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>1157</v>
+        <v>949</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>1158</v>
+        <v>950</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>1160</v>
+        <v>951</v>
+      </c>
+      <c r="B231" s="4">
+        <v>583</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>1161</v>
+        <v>952</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>1162</v>
+        <v>953</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>1163</v>
+        <v>954</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>1164</v>
+        <v>955</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="2" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>1166</v>
+        <v>956</v>
+      </c>
+      <c r="B232" s="4">
+        <v>1241.3</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>1167</v>
+        <v>957</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>1169</v>
+        <v>958</v>
+      </c>
+      <c r="B233" s="4">
+        <v>1551.9</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>1170</v>
+        <v>959</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>1171</v>
+        <v>960</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>1172</v>
+        <v>961</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="2" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>1174</v>
+        <v>962</v>
+      </c>
+      <c r="B234" s="4">
+        <v>3144.7</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>1175</v>
+        <v>963</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>1176</v>
+        <v>964</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>1177</v>
+        <v>965</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>1178</v>
+        <v>966</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="2" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>1180</v>
+        <v>967</v>
+      </c>
+      <c r="B235" s="4">
+        <v>842.6</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>835</v>
+        <v>685</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>1181</v>
+        <v>968</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>1182</v>
+        <v>969</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>1183</v>
+        <v>970</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>1185</v>
+        <v>971</v>
+      </c>
+      <c r="B236" s="4">
+        <v>882.1</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>1123</v>
+        <v>921</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>1186</v>
+        <v>972</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>1187</v>
+        <v>973</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="2" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>1189</v>
+        <v>974</v>
+      </c>
+      <c r="B237" s="4">
+        <v>784.2</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>1190</v>
+        <v>975</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>1191</v>
+        <v>976</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>1192</v>
+        <v>977</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>1193</v>
+        <v>978</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>1195</v>
+        <v>979</v>
+      </c>
+      <c r="B238" s="4">
+        <v>513.29999999999995</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>1196</v>
+        <v>980</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>1197</v>
+        <v>981</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>1198</v>
+        <v>982</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="2" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>1200</v>
+        <v>983</v>
+      </c>
+      <c r="B239" s="4">
+        <v>835.6</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>1201</v>
+        <v>984</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>1202</v>
+        <v>985</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>1203</v>
+        <v>986</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>1205</v>
+        <v>987</v>
+      </c>
+      <c r="B240" s="4">
+        <v>604.20000000000005</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>1206</v>
+        <v>988</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>1207</v>
+        <v>989</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>1208</v>
+        <v>990</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>1209</v>
+        <v>991</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="2" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>1211</v>
+        <v>992</v>
+      </c>
+      <c r="B241" s="4">
+        <v>3361.5</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>496</v>
+        <v>409</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>1212</v>
+        <v>993</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>1213</v>
+        <v>994</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>1214</v>
+        <v>995</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>1216</v>
+        <v>996</v>
+      </c>
+      <c r="B242" s="4">
+        <v>1086.2</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>1217</v>
+        <v>997</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>1218</v>
+        <v>998</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>1219</v>
+        <v>999</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>1220</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="2" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>1222</v>
+        <v>1001</v>
+      </c>
+      <c r="B243" s="4">
+        <v>914.5</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>1065</v>
+        <v>873</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="2" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>1224</v>
+        <v>1002</v>
+      </c>
+      <c r="B244" s="4">
+        <v>627.6</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>1225</v>
+        <v>1003</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>1226</v>
+        <v>1004</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>1227</v>
+        <v>1005</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>1228</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="2" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>1230</v>
+        <v>1007</v>
+      </c>
+      <c r="B245" s="4">
+        <v>970.9</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>530</v>
+        <v>436</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>1231</v>
+        <v>1008</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>1232</v>
+        <v>1009</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>1233</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="2" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>1235</v>
+        <v>1011</v>
+      </c>
+      <c r="B246" s="4">
+        <v>590.6</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>1236</v>
+        <v>1012</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>1237</v>
+        <v>1013</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>1238</v>
+        <v>1014</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>1239</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="2" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>1241</v>
+        <v>1016</v>
+      </c>
+      <c r="B247" s="4">
+        <v>1115.5</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>1242</v>
+        <v>1017</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>1243</v>
+        <v>1018</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>1244</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="2" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>1246</v>
+        <v>1020</v>
+      </c>
+      <c r="B248" s="4">
+        <v>803.7</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>1247</v>
+        <v>1021</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>1248</v>
+        <v>1022</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>1249</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="2" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B249" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B249" s="4">
+        <v>841.3</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="D249" s="2" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>1251</v>
+        <v>1025</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>1252</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="2" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>1254</v>
+        <v>1027</v>
+      </c>
+      <c r="B250" s="4">
+        <v>904.4</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>1255</v>
+        <v>1028</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>1256</v>
+        <v>1029</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>1203</v>
+        <v>986</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>1202</v>
+        <v>985</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="2" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>1258</v>
+        <v>1030</v>
+      </c>
+      <c r="B251" s="4">
+        <v>645.20000000000005</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>1259</v>
+        <v>1031</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>1260</v>
+        <v>1032</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>1261</v>
+        <v>1033</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>1262</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="2" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>1264</v>
+        <v>1035</v>
+      </c>
+      <c r="B252" s="4">
+        <v>799.7</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>1264</v>
+        <v>1036</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>1265</v>
+        <v>1037</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>1266</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="2" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>1222</v>
+        <v>1039</v>
+      </c>
+      <c r="B253" s="4">
+        <v>914.5</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>1268</v>
+        <v>1040</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>862</v>
+        <v>707</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>1269</v>
+        <v>1041</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>1270</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="2" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>1272</v>
+        <v>1043</v>
+      </c>
+      <c r="B254" s="4">
+        <v>998.4</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>1273</v>
+        <v>1044</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>1274</v>
+        <v>1045</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>1275</v>
+        <v>1046</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>1276</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="2" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>1278</v>
+        <v>1048</v>
+      </c>
+      <c r="B255" s="4">
+        <v>1297.4000000000001</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>1279</v>
+        <v>1049</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>1280</v>
+        <v>1050</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>1281</v>
+        <v>1051</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>1282</v>
+        <v>1052</v>
       </c>
     </row>
   </sheetData>
